--- a/data/s1_random_new.xlsx
+++ b/data/s1_random_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadi\Documents\Norway\ikt454-5g\Bluetooth-Classic-and-BLE-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9E069C-94B7-4EB3-A6B0-17D249459EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4320D-33BA-48D8-B081-073FB39B56A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B9EA5C9-4DCC-496E-AFDC-B7B4BE817B07}"/>
   </bookViews>
@@ -44,19 +44,19 @@
     <t>Size (Bytes)</t>
   </si>
   <si>
-    <t>Duration (s)</t>
-  </si>
-  <si>
-    <t>Throughput (MB/s)</t>
-  </si>
-  <si>
-    <t>Average Duration (s)</t>
-  </si>
-  <si>
     <t>Average Throughput (KB/s)</t>
   </si>
   <si>
     <t>Distance (m)</t>
+  </si>
+  <si>
+    <t>Throughput (KB/s)</t>
+  </si>
+  <si>
+    <t>Transfer Duration (s)</t>
+  </si>
+  <si>
+    <t>Average Transfer Duration (s)</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Duration over Distance</a:t>
+              <a:t>Average Transfer Duration over Distance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2539,15 +2539,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC8EE27-DC4E-4AAE-93A5-7AB616AFABDD}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2556,19 +2556,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
